--- a/nuon/instagram_posts_mihee2351.xlsx
+++ b/nuon/instagram_posts_mihee2351.xlsx
@@ -2608,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -2655,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -2702,7 +2702,7 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>7</v>
@@ -2749,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>266</v>
       </c>
       <c r="E38">
         <v>11</v>
@@ -2843,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -2890,7 +2890,7 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="E40">
         <v>7</v>
@@ -2937,7 +2937,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="E41">
         <v>17</v>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="E42">
         <v>14</v>
@@ -3031,7 +3031,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="E43">
         <v>17</v>
@@ -3081,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>405</v>
       </c>
       <c r="E44">
         <v>24</v>
@@ -3128,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>406</v>
       </c>
       <c r="E45">
         <v>31</v>
@@ -3175,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3225,7 +3225,7 @@
         <v>2</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -3272,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E48">
         <v>23</v>
@@ -3322,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="E49">
         <v>5</v>
